--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -589,9 +589,13 @@
           <t>Realkameratene FK</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -505,9 +505,13 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Omega Løkka</t>
@@ -547,9 +551,13 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Petroleum FK</t>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -787,9 +787,13 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -707,9 +707,13 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>
@@ -749,9 +753,13 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -929,9 +929,13 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Omega Løkka</t>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -893,9 +893,13 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>CAF</t>
@@ -969,9 +973,13 @@
           <t>Realkameratene FK</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Petroleum FK</t>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -894,11 +894,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1069,9 +1069,13 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>
@@ -1105,9 +1109,13 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Petroleum FK</t>
@@ -1141,9 +1149,13 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -894,11 +894,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -1245,9 +1245,13 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Omega Løkka</t>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -1285,9 +1285,13 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>

--- a/Scripts/Kamper/V24/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/D-sluttspill.xlsx
@@ -1325,9 +1325,13 @@
           <t>Realkameratene FK</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>CAF</t>
